--- a/SellyExcel/6.9 테스트 통과/사용자 통계 시나리오.xlsx
+++ b/SellyExcel/6.9 테스트 통과/사용자 통계 시나리오.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/id_sucheol/Desktop/SellyExcel/6.9 테스트 통과/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/id_sucheol/Desktop/Project/IMQA-TestSelly/SellyExcel/6.9 테스트 통과/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{308886EF-E6FA-8348-AFFA-0685AFFA7F25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF451294-383E-E140-BC8F-D7B4ECD018EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7640" yWindow="1760" windowWidth="27500" windowHeight="16440" xr2:uid="{AAE3EDFA-CC6D-0E43-8408-1A2183F66572}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="41">
   <si>
-    <t>표시 위치(대)</t>
-  </si>
-  <si>
     <t>검증 지표</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   <si>
     <t>프레딧 AOS MPM 진입</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표시 위치</t>
   </si>
 </sst>
 </file>
@@ -590,9 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4CB0661-7884-7945-84F6-C27DE3E8A11E}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -602,366 +600,366 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="C12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2"/>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="C33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
         <v>36</v>
       </c>
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="C36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
